--- a/data/trans_bre/P38A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.720901613480368</v>
+        <v>2.993691400715952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.111187631991617</v>
+        <v>3.045886207403298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.583076796706017</v>
+        <v>3.424931871002663</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.04886747931179595</v>
+        <v>0.05707438496029166</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06750713115409583</v>
+        <v>0.05005754093765637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07006636745806735</v>
+        <v>0.06075964242293331</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.66229598168279</v>
+        <v>16.32332425053973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.14930154384762</v>
+        <v>16.77923877181068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.99805519526266</v>
+        <v>25.55407294974389</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.3073394976224986</v>
+        <v>0.3185072711939911</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3208478917942157</v>
+        <v>0.3174040587683651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5941822221161819</v>
+        <v>0.5990979782883514</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.1539746570709174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09922875457430189</v>
+        <v>0.09922875457430187</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.035530779133486</v>
+        <v>2.18374477921334</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.01856392358759</v>
+        <v>7.14103244921096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6369485166333234</v>
+        <v>0.6668484729682194</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02455586415514874</v>
+        <v>0.02553256429834901</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08927399766509418</v>
+        <v>0.09138364735411307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008526560749576506</v>
+        <v>0.006689567296190436</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.06356669309482</v>
+        <v>10.59847663783838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.14221290201142</v>
+        <v>16.10238533946438</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.4797428388788</v>
+        <v>13.79332027886144</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1282260267053472</v>
+        <v>0.1333980318304539</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2221617808819087</v>
+        <v>0.2223775298829143</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2029144099065728</v>
+        <v>0.2026982871238773</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>6.781229982606352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.467164892054134</v>
+        <v>7.467164892054113</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.08548043725838234</v>
@@ -791,7 +791,7 @@
         <v>0.08246070832101444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0939552349637346</v>
+        <v>0.09395523496373433</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.037011933694214</v>
+        <v>4.019381808874606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.984583030237077</v>
+        <v>2.937428892681021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.384714012781462</v>
+        <v>3.219682357424035</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.04614518348129334</v>
+        <v>0.0456960508469478</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03508464737719038</v>
+        <v>0.03456110341848236</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04126681995799062</v>
+        <v>0.03923956560643935</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.05428032715638</v>
+        <v>10.72828120071344</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.67819251211528</v>
+        <v>10.86925553637292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.50499009931391</v>
+        <v>11.44070223399748</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1321179680443738</v>
+        <v>0.1293340891313655</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1335161303911296</v>
+        <v>0.1363609587674949</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.151532573478051</v>
+        <v>0.1510488532930481</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.888040926828534</v>
+        <v>-4.552078160911346</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5026140623657356</v>
+        <v>0.4104034998227121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.02719246437013495</v>
+        <v>0.5584459123666151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05218609744648405</v>
+        <v>-0.04826213708343666</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006283795481733249</v>
+        <v>0.004597142280503981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0001124837063731824</v>
+        <v>0.006124069140272587</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.565069109412106</v>
+        <v>1.728649743153004</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.196674542198228</v>
+        <v>7.15873651798469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.587089436152272</v>
+        <v>5.771466149355372</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01703867829983583</v>
+        <v>0.01855616427648177</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08362893574630445</v>
+        <v>0.08316037877605599</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06358112453044037</v>
+        <v>0.06534365568373086</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.987395869457931</v>
+        <v>-2.788600796136704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.188173232054662</v>
+        <v>-1.986566926547255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8065549692876466</v>
+        <v>0.6399661870029075</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.03082864924003054</v>
+        <v>-0.02880251176517299</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.02311224757236887</v>
+        <v>-0.02103659819734014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008814482867706287</v>
+        <v>0.00686850110521119</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.365758527573517</v>
+        <v>3.444126969599393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.190070851265583</v>
+        <v>4.686777899155282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.832728973205213</v>
+        <v>5.743351709271407</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.03633154074125244</v>
+        <v>0.03677045375148583</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04572483667560364</v>
+        <v>0.05087194680810734</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06530150548805287</v>
+        <v>0.06358132828997741</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.7847619301201036</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.40835763067747</v>
+        <v>1.408357630677459</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01686524722402221</v>
@@ -1037,7 +1037,7 @@
         <v>0.008041528824306504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01460170071570093</v>
+        <v>0.01460170071570081</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.232232560213715</v>
+        <v>-4.8228652645984</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.26290842161048</v>
+        <v>-1.439843917095966</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.3421275913083598</v>
+        <v>-0.2386379564869862</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04306671517240294</v>
+        <v>-0.04852185194277622</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0127993201541714</v>
+        <v>-0.01463151941864241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.003529594736446623</v>
+        <v>-0.002430913840632543</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9936184810400071</v>
+        <v>0.843926275750306</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.7887902574709</v>
+        <v>2.96197815464078</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.336776848829839</v>
+        <v>3.444265045871514</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01026863099676063</v>
+        <v>0.009008021887238118</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02907842673719362</v>
+        <v>0.0309218404657436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03509197044149195</v>
+        <v>0.03624532030323253</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.4583876479489213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.282273262495849</v>
+        <v>-2.28227326249586</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.01595604829645759</v>
@@ -1119,7 +1119,7 @@
         <v>0.004675248567119246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.02318621118580311</v>
+        <v>-0.02318621118580323</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4990584767599395</v>
+        <v>-0.5317340881346295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.962658438875059</v>
+        <v>-1.715749539148949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.351354348010548</v>
+        <v>-4.159692699017615</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.005159130161748939</v>
+        <v>-0.005349982133758075</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.01986190056634749</v>
+        <v>-0.01739573709803297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04392165673229313</v>
+        <v>-0.04228771836836869</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.230546287906231</v>
+        <v>4.485352739057299</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.482592086104598</v>
+        <v>2.608382441678957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3831621405067521</v>
+        <v>-0.2373044318382528</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.04440089185825094</v>
+        <v>0.04735020412871121</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02587753097723881</v>
+        <v>0.02696244247142341</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.003913757964140229</v>
+        <v>-0.002468711695659707</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>6.253409758289708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5.800282771485388</v>
+        <v>5.800282771485399</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.05111239220890207</v>
@@ -1201,7 +1201,7 @@
         <v>0.07482222733938539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0701586743447833</v>
+        <v>0.07015867434478343</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.686041726139248</v>
+        <v>2.696141471286937</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.491163496307815</v>
+        <v>4.740268154860114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.875714247329153</v>
+        <v>3.837317374366255</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03124885947290334</v>
+        <v>0.03123658741638253</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05331151121123247</v>
+        <v>0.05596629533818654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04630103102168881</v>
+        <v>0.0457177500979339</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.97725117756047</v>
+        <v>5.811846336029658</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.85121680211075</v>
+        <v>7.901474653758379</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.810623603556357</v>
+        <v>7.85935456672976</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07070856088710172</v>
+        <v>0.06872917008827256</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09525535534439038</v>
+        <v>0.0953261129513384</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09640586799154664</v>
+        <v>0.0967678009138741</v>
       </c>
     </row>
     <row r="28">
